--- a/Code/Results/Cases/Case_6_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.446856378456573</v>
+        <v>1.018463335550621</v>
       </c>
       <c r="C2">
-        <v>0.350166261085235</v>
+        <v>0.1233963298855585</v>
       </c>
       <c r="D2">
-        <v>0.04042865009542362</v>
+        <v>0.07149684309569437</v>
       </c>
       <c r="E2">
-        <v>0.02955304940036063</v>
+        <v>0.05670970416319854</v>
       </c>
       <c r="F2">
-        <v>1.480222721030245</v>
+        <v>0.6259696967955222</v>
       </c>
       <c r="G2">
-        <v>0.0008109582492825559</v>
+        <v>0.0008172907531630494</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5769558461488131</v>
+        <v>0.8390284302267901</v>
       </c>
       <c r="L2">
-        <v>0.1486229473583833</v>
+        <v>0.1481459928642792</v>
       </c>
       <c r="M2">
-        <v>0.4147844741256179</v>
+        <v>0.2159560812052668</v>
       </c>
       <c r="N2">
-        <v>1.130350403758563</v>
+        <v>1.001365931483747</v>
       </c>
       <c r="O2">
-        <v>1.16356553711195</v>
+        <v>1.97363009311988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.131783345112922</v>
+        <v>0.8877594263237256</v>
       </c>
       <c r="C3">
-        <v>0.3076669021416905</v>
+        <v>0.1217444402970997</v>
       </c>
       <c r="D3">
-        <v>0.04227493214764566</v>
+        <v>0.06603331230074616</v>
       </c>
       <c r="E3">
-        <v>0.02994282140056925</v>
+        <v>0.05574580041938226</v>
       </c>
       <c r="F3">
-        <v>1.366260950115048</v>
+        <v>0.6007638800065038</v>
       </c>
       <c r="G3">
-        <v>0.0008177492314869253</v>
+        <v>0.0008208652762883485</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4995423837685351</v>
+        <v>0.7293306145272425</v>
       </c>
       <c r="L3">
-        <v>0.1347458818690512</v>
+        <v>0.1345500932728783</v>
       </c>
       <c r="M3">
-        <v>0.363702096377466</v>
+        <v>0.1897850768440641</v>
       </c>
       <c r="N3">
-        <v>1.17881245794532</v>
+        <v>1.046394441945043</v>
       </c>
       <c r="O3">
-        <v>1.085684712071284</v>
+        <v>1.937902164400384</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.94091976436016</v>
+        <v>0.8078940891986406</v>
       </c>
       <c r="C4">
-        <v>0.2817311698580909</v>
+        <v>0.1207438154105347</v>
       </c>
       <c r="D4">
-        <v>0.04343384959573982</v>
+        <v>0.06266087962365674</v>
       </c>
       <c r="E4">
-        <v>0.03019886159749063</v>
+        <v>0.05522460833454268</v>
       </c>
       <c r="F4">
-        <v>1.299151922150713</v>
+        <v>0.5863036236506716</v>
       </c>
       <c r="G4">
-        <v>0.0008220436940739762</v>
+        <v>0.0008231367085477591</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4525572692214368</v>
+        <v>0.6620879479633146</v>
       </c>
       <c r="L4">
-        <v>0.1264298475529984</v>
+        <v>0.1263511834011553</v>
       </c>
       <c r="M4">
-        <v>0.3328147105112151</v>
+        <v>0.1738405016414895</v>
       </c>
       <c r="N4">
-        <v>1.210221314356154</v>
+        <v>1.075211272222401</v>
       </c>
       <c r="O4">
-        <v>1.040179361065242</v>
+        <v>1.919255931929399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863715644508062</v>
+        <v>0.7754329667780837</v>
       </c>
       <c r="C5">
-        <v>0.27119226154079</v>
+        <v>0.1203393774220771</v>
       </c>
       <c r="D5">
-        <v>0.04391239206315811</v>
+        <v>0.06128189307776211</v>
       </c>
       <c r="E5">
-        <v>0.03030733826074195</v>
+        <v>0.05502945219412148</v>
       </c>
       <c r="F5">
-        <v>1.272467717195525</v>
+        <v>0.5806550860015705</v>
       </c>
       <c r="G5">
-        <v>0.0008238260803122925</v>
+        <v>0.0008240818979317326</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4335293192380618</v>
+        <v>0.6347047960290979</v>
       </c>
       <c r="L5">
-        <v>0.1230882608165942</v>
+        <v>0.1230452798665098</v>
       </c>
       <c r="M5">
-        <v>0.3203348464641849</v>
+        <v>0.1673712988270353</v>
       </c>
       <c r="N5">
-        <v>1.223420819183659</v>
+        <v>1.087242334743014</v>
       </c>
       <c r="O5">
-        <v>1.022173283020983</v>
+        <v>1.912452009350474</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.850928482733281</v>
+        <v>0.7700475740775232</v>
       </c>
       <c r="C6">
-        <v>0.2694438275442792</v>
+        <v>0.1202724186943733</v>
       </c>
       <c r="D6">
-        <v>0.04399223041343392</v>
+        <v>0.06105262387458765</v>
       </c>
       <c r="E6">
-        <v>0.03032559884721442</v>
+        <v>0.05499807243939081</v>
       </c>
       <c r="F6">
-        <v>1.268075295855581</v>
+        <v>0.5797315721008971</v>
       </c>
       <c r="G6">
-        <v>0.000824124026132749</v>
+        <v>0.000824240035607261</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4303764002025474</v>
+        <v>0.6301587122685106</v>
       </c>
       <c r="L6">
-        <v>0.1225361310313033</v>
+        <v>0.1224984002745799</v>
       </c>
       <c r="M6">
-        <v>0.3182686725095678</v>
+        <v>0.1662987202347601</v>
       </c>
       <c r="N6">
-        <v>1.225636321857529</v>
+        <v>1.08925730540266</v>
       </c>
       <c r="O6">
-        <v>1.019214633194949</v>
+        <v>1.911369278454131</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.939876335717031</v>
+        <v>0.8074559808028425</v>
       </c>
       <c r="C7">
-        <v>0.2815889290593248</v>
+        <v>0.120738347689656</v>
       </c>
       <c r="D7">
-        <v>0.0434402780844505</v>
+        <v>0.06264230140791227</v>
       </c>
       <c r="E7">
-        <v>0.03020030787906691</v>
+        <v>0.05522190729690202</v>
       </c>
       <c r="F7">
-        <v>1.298789436424144</v>
+        <v>0.5862264716990069</v>
       </c>
       <c r="G7">
-        <v>0.0008220675997002282</v>
+        <v>0.0008231493761389763</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4523001941065559</v>
+        <v>0.6617185852810792</v>
       </c>
       <c r="L7">
-        <v>0.1263845956767113</v>
+        <v>0.1263064591354066</v>
       </c>
       <c r="M7">
-        <v>0.332645986065927</v>
+        <v>0.1737531447814504</v>
       </c>
       <c r="N7">
-        <v>1.210397727022922</v>
+        <v>1.075372369104622</v>
       </c>
       <c r="O7">
-        <v>1.039934403638256</v>
+        <v>1.919160997105195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.337632607405226</v>
+        <v>0.9733083056960083</v>
       </c>
       <c r="C8">
-        <v>0.3354732814345311</v>
+        <v>0.1228238600393894</v>
       </c>
       <c r="D8">
-        <v>0.041059942096068</v>
+        <v>0.06961657752982831</v>
       </c>
       <c r="E8">
-        <v>0.02968393144278059</v>
+        <v>0.05636235980608539</v>
       </c>
       <c r="F8">
-        <v>1.440298755917013</v>
+        <v>0.6170607842405715</v>
       </c>
       <c r="G8">
-        <v>0.0008132744954694117</v>
+        <v>0.0008185075132677855</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5501384446735358</v>
+        <v>0.8011754611318338</v>
       </c>
       <c r="L8">
-        <v>0.1437930801337473</v>
+        <v>0.14342580218932</v>
       </c>
       <c r="M8">
-        <v>0.3970640284079394</v>
+        <v>0.2069046315437184</v>
       </c>
       <c r="N8">
-        <v>1.146707369874456</v>
+        <v>1.016645405762668</v>
       </c>
       <c r="O8">
-        <v>1.136204457003302</v>
+        <v>1.960607770796173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.142034703089109</v>
+        <v>1.302241161993607</v>
       </c>
       <c r="C9">
-        <v>0.4428928591704846</v>
+        <v>0.1270272547154079</v>
       </c>
       <c r="D9">
-        <v>0.03659747690342696</v>
+        <v>0.08316276434639036</v>
       </c>
       <c r="E9">
-        <v>0.02880725168369569</v>
+        <v>0.05918461082468163</v>
       </c>
       <c r="F9">
-        <v>1.743318530118628</v>
+        <v>0.6861334947150652</v>
       </c>
       <c r="G9">
-        <v>0.0007969732318339125</v>
+        <v>0.0008099995395969372</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7472643216449839</v>
+        <v>1.076003848223763</v>
       </c>
       <c r="L9">
-        <v>0.1797590883002727</v>
+        <v>0.1782878187691068</v>
       </c>
       <c r="M9">
-        <v>0.5278196957746459</v>
+        <v>0.2730470805548961</v>
       </c>
       <c r="N9">
-        <v>1.035683093569745</v>
+        <v>0.9110402589654374</v>
       </c>
       <c r="O9">
-        <v>1.34551631633606</v>
+        <v>2.069564408556943</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.753792592174591</v>
+        <v>1.547100094803852</v>
       </c>
       <c r="C10">
-        <v>0.5236404679515374</v>
+        <v>0.1301935014511457</v>
       </c>
       <c r="D10">
-        <v>0.03345213148160786</v>
+        <v>0.09305253789062107</v>
       </c>
       <c r="E10">
-        <v>0.0282511356896995</v>
+        <v>0.06165234153341892</v>
       </c>
       <c r="F10">
-        <v>1.985781973892301</v>
+        <v>0.742928705499267</v>
       </c>
       <c r="G10">
-        <v>0.0007854979948751266</v>
+        <v>0.0008040913860363496</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8967244454398582</v>
+        <v>1.279446416446575</v>
       </c>
       <c r="L10">
-        <v>0.2076113331988694</v>
+        <v>0.2048493216449003</v>
       </c>
       <c r="M10">
-        <v>0.6275761343817763</v>
+        <v>0.322548760884338</v>
       </c>
       <c r="N10">
-        <v>0.9637220898527374</v>
+        <v>0.8396866887393539</v>
       </c>
       <c r="O10">
-        <v>1.515128232850273</v>
+        <v>2.168796628964486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.038075674666118</v>
+        <v>1.659408976501709</v>
       </c>
       <c r="C11">
-        <v>0.560962190675184</v>
+        <v>0.1316530204023252</v>
       </c>
       <c r="D11">
-        <v>0.03205254425467174</v>
+        <v>0.09754205312340503</v>
       </c>
       <c r="E11">
-        <v>0.02801857493438176</v>
+        <v>0.06286927638799966</v>
       </c>
       <c r="F11">
-        <v>2.101459868195448</v>
+        <v>0.770268416246779</v>
       </c>
       <c r="G11">
-        <v>0.0007803684692384598</v>
+        <v>0.0008014733957666851</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9660790654706801</v>
+        <v>1.372496272260037</v>
       </c>
       <c r="L11">
-        <v>0.2206700547535831</v>
+        <v>0.217176878016474</v>
       </c>
       <c r="M11">
-        <v>0.6740057321997952</v>
+        <v>0.3453166100090996</v>
       </c>
       <c r="N11">
-        <v>0.933360604549911</v>
+        <v>0.8086760378042932</v>
       </c>
       <c r="O11">
-        <v>1.596555835435211</v>
+        <v>2.21865044406502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.146724425951504</v>
+        <v>1.702089314621048</v>
       </c>
       <c r="C12">
-        <v>0.5751975746563289</v>
+        <v>0.1322086533925955</v>
       </c>
       <c r="D12">
-        <v>0.03152731101260198</v>
+        <v>0.0992410972153337</v>
       </c>
       <c r="E12">
-        <v>0.02793357615897474</v>
+        <v>0.06334443024510605</v>
       </c>
       <c r="F12">
-        <v>2.146137537698422</v>
+        <v>0.7808541467335033</v>
       </c>
       <c r="G12">
-        <v>0.0007784374254374014</v>
+        <v>0.0008004916498805078</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.99257115509144</v>
+        <v>1.407818664094151</v>
       </c>
       <c r="L12">
-        <v>0.2256781533278485</v>
+        <v>0.2218835102964789</v>
       </c>
       <c r="M12">
-        <v>0.6917612761306842</v>
+        <v>0.3539785230715822</v>
       </c>
       <c r="N12">
-        <v>0.9222323220678561</v>
+        <v>0.7971501430082153</v>
       </c>
       <c r="O12">
-        <v>1.62808204122453</v>
+        <v>2.238254939069094</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.123278322783278</v>
+        <v>1.692890291409981</v>
       </c>
       <c r="C13">
-        <v>0.57212686908926</v>
+        <v>0.1320888537363629</v>
       </c>
       <c r="D13">
-        <v>0.03164021287315055</v>
+        <v>0.09887521863935689</v>
       </c>
       <c r="E13">
-        <v>0.02795174349442897</v>
+        <v>0.06324144757964945</v>
       </c>
       <c r="F13">
-        <v>2.136474879976575</v>
+        <v>0.7785636915371157</v>
       </c>
       <c r="G13">
-        <v>0.0007788528312273729</v>
+        <v>0.0008007026644682809</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9868548641297963</v>
+        <v>1.400207275348521</v>
       </c>
       <c r="L13">
-        <v>0.2245966436828581</v>
+        <v>0.2208680880262506</v>
       </c>
       <c r="M13">
-        <v>0.6879291909744367</v>
+        <v>0.3521111633709566</v>
       </c>
       <c r="N13">
-        <v>0.9246121155083671</v>
+        <v>0.7996226446181627</v>
       </c>
       <c r="O13">
-        <v>1.621260240078527</v>
+        <v>2.233999671150769</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.046993465678838</v>
+        <v>1.662917166313633</v>
       </c>
       <c r="C14">
-        <v>0.5621311821053325</v>
+        <v>0.1316986725061398</v>
       </c>
       <c r="D14">
-        <v>0.03200923588635751</v>
+        <v>0.09768185344274372</v>
       </c>
       <c r="E14">
-        <v>0.02801151975716465</v>
+        <v>0.06290807593389047</v>
       </c>
       <c r="F14">
-        <v>2.105117424293979</v>
+        <v>0.7711345465365866</v>
       </c>
       <c r="G14">
-        <v>0.000780209382718242</v>
+        <v>0.0008013924362112709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9682537955370947</v>
+        <v>1.375400450022426</v>
       </c>
       <c r="L14">
-        <v>0.2210807668392647</v>
+        <v>0.2175633052517441</v>
       </c>
       <c r="M14">
-        <v>0.6754628724042036</v>
+        <v>0.3460283985758892</v>
       </c>
       <c r="N14">
-        <v>0.9324375108054426</v>
+        <v>0.8077233902645489</v>
       </c>
       <c r="O14">
-        <v>1.599135187181304</v>
+        <v>2.220248480915728</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.000400881792416</v>
+        <v>1.644578062226543</v>
       </c>
       <c r="C15">
-        <v>0.5560224388044332</v>
+        <v>0.1314600646091506</v>
       </c>
       <c r="D15">
-        <v>0.03223590184403147</v>
+        <v>0.09695075725534963</v>
       </c>
       <c r="E15">
-        <v>0.02804853802468221</v>
+        <v>0.06270576529469807</v>
       </c>
       <c r="F15">
-        <v>2.08602689290413</v>
+        <v>0.7666148061524893</v>
       </c>
       <c r="G15">
-        <v>0.0007810417423393571</v>
+        <v>0.0008018161836078898</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9568909605374643</v>
+        <v>1.360217245310423</v>
       </c>
       <c r="L15">
-        <v>0.2189356262847326</v>
+        <v>0.2155441392701789</v>
       </c>
       <c r="M15">
-        <v>0.6678502230038816</v>
+        <v>0.3423079025551914</v>
       </c>
       <c r="N15">
-        <v>0.9372797104660222</v>
+        <v>0.8127138856181126</v>
       </c>
       <c r="O15">
-        <v>1.585675423042161</v>
+        <v>2.211921505381724</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.735345832531436</v>
+        <v>1.53978057262583</v>
       </c>
       <c r="C16">
-        <v>0.521214732690197</v>
+        <v>0.1300985199390183</v>
       </c>
       <c r="D16">
-        <v>0.03354424821612323</v>
+        <v>0.0927589747999491</v>
       </c>
       <c r="E16">
-        <v>0.02826675575247606</v>
+        <v>0.06157477446280168</v>
       </c>
       <c r="F16">
-        <v>1.978338662730522</v>
+        <v>0.7411736362198269</v>
       </c>
       <c r="G16">
-        <v>0.0007858349089158975</v>
+        <v>0.0008042638470155405</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8922221380144464</v>
+        <v>1.273376692655631</v>
       </c>
       <c r="L16">
-        <v>0.2067663304063956</v>
+        <v>0.2040488844845356</v>
       </c>
       <c r="M16">
-        <v>0.6245648630897449</v>
+        <v>0.3210662121220338</v>
       </c>
       <c r="N16">
-        <v>0.9657563441277901</v>
+        <v>0.8417432004346423</v>
       </c>
       <c r="O16">
-        <v>1.509899095200907</v>
+        <v>2.16563744902902</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.574369560972002</v>
+        <v>1.475739740461734</v>
       </c>
       <c r="C17">
-        <v>0.5000242467856424</v>
+        <v>0.1292682956724889</v>
       </c>
       <c r="D17">
-        <v>0.03435505349806167</v>
+        <v>0.09018526280163996</v>
       </c>
       <c r="E17">
-        <v>0.02840594282378595</v>
+        <v>0.06090564015654287</v>
       </c>
       <c r="F17">
-        <v>1.913720787404344</v>
+        <v>0.7259628115471557</v>
       </c>
       <c r="G17">
-        <v>0.0007887974584135533</v>
+        <v>0.0008057829821929974</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8529216284474614</v>
+        <v>1.220241353002507</v>
       </c>
       <c r="L17">
-        <v>0.1994052611466373</v>
+        <v>0.1970618341814685</v>
       </c>
       <c r="M17">
-        <v>0.5982950069317496</v>
+        <v>0.3081019939964804</v>
       </c>
       <c r="N17">
-        <v>0.9838525599628341</v>
+        <v>0.8599288686684528</v>
       </c>
       <c r="O17">
-        <v>1.464558924595039</v>
+        <v>2.138484049015005</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.482335293515121</v>
+        <v>1.438990660384519</v>
       </c>
       <c r="C18">
-        <v>0.487890328420491</v>
+        <v>0.1287925654472346</v>
       </c>
       <c r="D18">
-        <v>0.03482432951157399</v>
+        <v>0.0887040278074096</v>
       </c>
       <c r="E18">
-        <v>0.02848791272989315</v>
+        <v>0.06052960456174716</v>
       </c>
       <c r="F18">
-        <v>1.877054154396248</v>
+        <v>0.7173543881249671</v>
       </c>
       <c r="G18">
-        <v>0.000790510074930722</v>
+        <v>0.0008066633295575827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8304432842753187</v>
+        <v>1.18972573515569</v>
       </c>
       <c r="L18">
-        <v>0.1952074751366695</v>
+        <v>0.1930658815126378</v>
       </c>
       <c r="M18">
-        <v>0.5832826093448773</v>
+        <v>0.3006685038628163</v>
       </c>
       <c r="N18">
-        <v>0.9944826518601388</v>
+        <v>0.8705245542390898</v>
       </c>
       <c r="O18">
-        <v>1.438877308250127</v>
+        <v>2.123306630128184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.451265503554907</v>
+        <v>1.426562184528279</v>
       </c>
       <c r="C19">
-        <v>0.4837908080665727</v>
+        <v>0.1286317938756625</v>
       </c>
       <c r="D19">
-        <v>0.03498371288886704</v>
+        <v>0.08820234262875459</v>
       </c>
       <c r="E19">
-        <v>0.02851599121440884</v>
+        <v>0.0604037799990369</v>
       </c>
       <c r="F19">
-        <v>1.864722457074038</v>
+        <v>0.7144633559771947</v>
       </c>
       <c r="G19">
-        <v>0.00079109146793536</v>
+        <v>0.0008069625417654082</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8228532472258792</v>
+        <v>1.179401230136648</v>
       </c>
       <c r="L19">
-        <v>0.1937921716887416</v>
+        <v>0.1917167423069941</v>
       </c>
       <c r="M19">
-        <v>0.5782157327031427</v>
+        <v>0.2981555052879941</v>
       </c>
       <c r="N19">
-        <v>0.9981190905720752</v>
+        <v>0.8741351285356753</v>
       </c>
       <c r="O19">
-        <v>1.430247891800519</v>
+        <v>2.118242052986488</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.591447381616774</v>
+        <v>1.482548013163409</v>
       </c>
       <c r="C20">
-        <v>0.5022742694132489</v>
+        <v>0.1293564876157802</v>
       </c>
       <c r="D20">
-        <v>0.03426843767647414</v>
+        <v>0.09045933018698804</v>
       </c>
       <c r="E20">
-        <v>0.0283909272226861</v>
+        <v>0.06097595113175736</v>
       </c>
       <c r="F20">
-        <v>1.920547050982989</v>
+        <v>0.727567377839577</v>
       </c>
       <c r="G20">
-        <v>0.0007884812075132919</v>
+        <v>0.0008056205892539284</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8570919399566321</v>
+        <v>1.225892796685088</v>
       </c>
       <c r="L20">
-        <v>0.2001850730931665</v>
+        <v>0.1978032333614266</v>
       </c>
       <c r="M20">
-        <v>0.6010812479945429</v>
+        <v>0.3094796267894679</v>
       </c>
       <c r="N20">
-        <v>0.981903059004928</v>
+        <v>0.8579788590122295</v>
       </c>
       <c r="O20">
-        <v>1.469343857073127</v>
+        <v>2.141328645202918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.069371969911003</v>
+        <v>1.671716733509754</v>
       </c>
       <c r="C21">
-        <v>0.5650642256345577</v>
+        <v>0.1318131966865153</v>
       </c>
       <c r="D21">
-        <v>0.03190071330923594</v>
+        <v>0.09803239930622709</v>
       </c>
       <c r="E21">
-        <v>0.02799387765574179</v>
+        <v>0.06300560015637302</v>
       </c>
       <c r="F21">
-        <v>2.114303332252931</v>
+        <v>0.7733102113474928</v>
       </c>
       <c r="G21">
-        <v>0.0007798106352648001</v>
+        <v>0.0008011895754015232</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9737108861537251</v>
+        <v>1.382684352699783</v>
       </c>
       <c r="L21">
-        <v>0.2221116932846599</v>
+        <v>0.2185329292147031</v>
       </c>
       <c r="M21">
-        <v>0.6791196263015777</v>
+        <v>0.3478139260788708</v>
       </c>
       <c r="N21">
-        <v>0.9301287542332659</v>
+        <v>0.8053380374612438</v>
       </c>
       <c r="O21">
-        <v>1.605614430987586</v>
+        <v>2.224267436505073</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.38760781360844</v>
+        <v>1.796241640428065</v>
       </c>
       <c r="C22">
-        <v>0.6067080351084542</v>
+        <v>0.1334360632539173</v>
       </c>
       <c r="D22">
-        <v>0.03038117701000687</v>
+        <v>0.1029759476063745</v>
       </c>
       <c r="E22">
-        <v>0.02775233303008351</v>
+        <v>0.06441598790258141</v>
       </c>
       <c r="F22">
-        <v>2.246076657886931</v>
+        <v>0.8045710874087746</v>
       </c>
       <c r="G22">
-        <v>0.0007742094571874191</v>
+        <v>0.0007983495882821046</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.05128078177394</v>
+        <v>1.485667768018146</v>
       </c>
       <c r="L22">
-        <v>0.2368133570641362</v>
+        <v>0.2323068028631639</v>
       </c>
       <c r="M22">
-        <v>0.7311467956938245</v>
+        <v>0.3731043009915851</v>
       </c>
       <c r="N22">
-        <v>0.8984568706649441</v>
+        <v>0.7722045663508812</v>
       </c>
       <c r="O22">
-        <v>1.69874693650199</v>
+        <v>2.282728789852541</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217172289483699</v>
+        <v>1.729692123903391</v>
       </c>
       <c r="C23">
-        <v>0.5844200139018767</v>
+        <v>0.1325682623352478</v>
       </c>
       <c r="D23">
-        <v>0.03118952627032234</v>
+        <v>0.1003379132655766</v>
       </c>
       <c r="E23">
-        <v>0.02787955961774147</v>
+        <v>0.06365529804897463</v>
       </c>
       <c r="F23">
-        <v>2.175240531062499</v>
+        <v>0.7877558731014034</v>
       </c>
       <c r="G23">
-        <v>0.0007771934989940587</v>
+        <v>0.0007998603582400898</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.009744706689474</v>
+        <v>1.430651887172246</v>
       </c>
       <c r="L23">
-        <v>0.2289302570267324</v>
+        <v>0.2249336243065443</v>
       </c>
       <c r="M23">
-        <v>0.7032770210911252</v>
+        <v>0.3595831709647257</v>
       </c>
       <c r="N23">
-        <v>0.9151526658730091</v>
+        <v>0.7897692004335699</v>
       </c>
       <c r="O23">
-        <v>1.64864000452053</v>
+        <v>2.251120640607496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.583724910650858</v>
+        <v>1.479469780045434</v>
       </c>
       <c r="C24">
-        <v>0.5012568835766729</v>
+        <v>0.1293166111411566</v>
       </c>
       <c r="D24">
-        <v>0.03430758694963432</v>
+        <v>0.0903354292470695</v>
       </c>
       <c r="E24">
-        <v>0.02839770971358391</v>
+        <v>0.06094413662706799</v>
       </c>
       <c r="F24">
-        <v>1.917459400017719</v>
+        <v>0.7268415295498869</v>
       </c>
       <c r="G24">
-        <v>0.0007886241551233908</v>
+        <v>0.0008056939853563553</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8552061831113349</v>
+        <v>1.223337678520863</v>
       </c>
       <c r="L24">
-        <v>0.1998324141478349</v>
+        <v>0.1974679816411395</v>
       </c>
       <c r="M24">
-        <v>0.5998213082303749</v>
+        <v>0.3088567376225342</v>
       </c>
       <c r="N24">
-        <v>0.9827837254490106</v>
+        <v>0.8588600214085442</v>
       </c>
       <c r="O24">
-        <v>1.467179395486397</v>
+        <v>2.140041256834081</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921235501953618</v>
+        <v>1.212766929227115</v>
       </c>
       <c r="C25">
-        <v>0.4135716579252176</v>
+        <v>0.1258771023383289</v>
       </c>
       <c r="D25">
-        <v>0.0377819836961617</v>
+        <v>0.0795104329496894</v>
       </c>
       <c r="E25">
-        <v>0.02902937326982258</v>
+        <v>0.05835469353961997</v>
       </c>
       <c r="F25">
-        <v>1.658194200886101</v>
+        <v>0.666446266669972</v>
       </c>
       <c r="G25">
-        <v>0.0008012894663410021</v>
+        <v>0.0008122395013362353</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.693234161454761</v>
+        <v>1.001440855593415</v>
       </c>
       <c r="L25">
-        <v>0.1698029634440417</v>
+        <v>0.168702414813346</v>
       </c>
       <c r="M25">
-        <v>0.4918758302759727</v>
+        <v>0.2550109951552137</v>
       </c>
       <c r="N25">
-        <v>1.064120944046799</v>
+        <v>0.938545418724912</v>
       </c>
       <c r="O25">
-        <v>1.286370914905675</v>
+        <v>2.036895569228307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.018463335550621</v>
+        <v>0.8673396190854987</v>
       </c>
       <c r="C2">
-        <v>0.1233963298855585</v>
+        <v>0.1671602755100139</v>
       </c>
       <c r="D2">
-        <v>0.07149684309569437</v>
+        <v>0.08525850306856597</v>
       </c>
       <c r="E2">
-        <v>0.05670970416319854</v>
+        <v>0.06131427043876414</v>
       </c>
       <c r="F2">
-        <v>0.6259696967955222</v>
+        <v>0.4116568145334014</v>
       </c>
       <c r="G2">
-        <v>0.0008172907531630494</v>
+        <v>0.3123927019500314</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001518419479879185</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2923108491824777</v>
       </c>
       <c r="K2">
-        <v>0.8390284302267901</v>
+        <v>0.3329014580924472</v>
       </c>
       <c r="L2">
-        <v>0.1481459928642792</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2159560812052668</v>
+        <v>0.7862981181156385</v>
       </c>
       <c r="N2">
-        <v>1.001365931483747</v>
+        <v>0.1557931641167372</v>
       </c>
       <c r="O2">
-        <v>1.97363009311988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1954906799089571</v>
+      </c>
+      <c r="P2">
+        <v>0.8632490504608459</v>
+      </c>
+      <c r="Q2">
+        <v>1.222003129338731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8877594263237256</v>
+        <v>0.7551687307712314</v>
       </c>
       <c r="C3">
-        <v>0.1217444402970997</v>
+        <v>0.1616527120873528</v>
       </c>
       <c r="D3">
-        <v>0.06603331230074616</v>
+        <v>0.07615469040822376</v>
       </c>
       <c r="E3">
-        <v>0.05574580041938226</v>
+        <v>0.06034405523701025</v>
       </c>
       <c r="F3">
-        <v>0.6007638800065038</v>
+        <v>0.3956916912780102</v>
       </c>
       <c r="G3">
-        <v>0.0008208652762883485</v>
+        <v>0.3050548594178082</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002373131196278244</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2930409169629939</v>
       </c>
       <c r="K3">
-        <v>0.7293306145272425</v>
+        <v>0.33508367806553</v>
       </c>
       <c r="L3">
-        <v>0.1345500932728783</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1897850768440641</v>
+        <v>0.6884085061703757</v>
       </c>
       <c r="N3">
-        <v>1.046394441945043</v>
+        <v>0.1415465071756401</v>
       </c>
       <c r="O3">
-        <v>1.937902164400384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.171259695865043</v>
+      </c>
+      <c r="P3">
+        <v>0.8917897864961297</v>
+      </c>
+      <c r="Q3">
+        <v>1.207705032131983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8078940891986406</v>
+        <v>0.6860042871167593</v>
       </c>
       <c r="C4">
-        <v>0.1207438154105347</v>
+        <v>0.1582884064786185</v>
       </c>
       <c r="D4">
-        <v>0.06266087962365674</v>
+        <v>0.07056195697806089</v>
       </c>
       <c r="E4">
-        <v>0.05522460833454268</v>
+        <v>0.05979347568801607</v>
       </c>
       <c r="F4">
-        <v>0.5863036236506716</v>
+        <v>0.3863417139698981</v>
       </c>
       <c r="G4">
-        <v>0.0008231367085477591</v>
+        <v>0.300925953502265</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003082100413557942</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.293754488464316</v>
       </c>
       <c r="K4">
-        <v>0.6620879479633146</v>
+        <v>0.3367065057408176</v>
       </c>
       <c r="L4">
-        <v>0.1263511834011553</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1738405016414895</v>
+        <v>0.6281907129003486</v>
       </c>
       <c r="N4">
-        <v>1.075211272222401</v>
+        <v>0.1329832693309001</v>
       </c>
       <c r="O4">
-        <v>1.919255931929399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1563955095802783</v>
+      </c>
+      <c r="P4">
+        <v>0.910039531904804</v>
+      </c>
+      <c r="Q4">
+        <v>1.200272272606171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7754329667780837</v>
+        <v>0.6571633947784505</v>
       </c>
       <c r="C5">
-        <v>0.1203393774220771</v>
+        <v>0.1570512416310592</v>
       </c>
       <c r="D5">
-        <v>0.06128189307776211</v>
+        <v>0.06832920065627235</v>
       </c>
       <c r="E5">
-        <v>0.05502945219412148</v>
+        <v>0.05954561146895898</v>
       </c>
       <c r="F5">
-        <v>0.5806550860015705</v>
+        <v>0.3823743898995531</v>
       </c>
       <c r="G5">
-        <v>0.0008240818979317326</v>
+        <v>0.2990792322814286</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003490728585731517</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2939785456559108</v>
       </c>
       <c r="K5">
-        <v>0.6347047960290979</v>
+        <v>0.3371908010136657</v>
       </c>
       <c r="L5">
-        <v>0.1230452798665098</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1673712988270353</v>
+        <v>0.6036495596498384</v>
       </c>
       <c r="N5">
-        <v>1.087242334743014</v>
+        <v>0.129602910830414</v>
       </c>
       <c r="O5">
-        <v>1.912452009350474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1502810489014514</v>
+      </c>
+      <c r="P5">
+        <v>0.9176660394624232</v>
+      </c>
+      <c r="Q5">
+        <v>1.196753447364017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7700475740775232</v>
+        <v>0.6516586759163374</v>
       </c>
       <c r="C6">
-        <v>0.1202724186943733</v>
+        <v>0.1570067837108269</v>
       </c>
       <c r="D6">
-        <v>0.06105262387458765</v>
+        <v>0.06801671909820328</v>
       </c>
       <c r="E6">
-        <v>0.05499807243939081</v>
+        <v>0.05946277639048425</v>
       </c>
       <c r="F6">
-        <v>0.5797315721008971</v>
+        <v>0.3813959789425425</v>
       </c>
       <c r="G6">
-        <v>0.000824240035607261</v>
+        <v>0.2984659158928693</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003660393466368816</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.293858323318041</v>
       </c>
       <c r="K6">
-        <v>0.6301587122685106</v>
+        <v>0.3369742130811844</v>
       </c>
       <c r="L6">
-        <v>0.1224984002745799</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1662987202347601</v>
+        <v>0.5996093780759253</v>
       </c>
       <c r="N6">
-        <v>1.08925730540266</v>
+        <v>0.1291239127139008</v>
       </c>
       <c r="O6">
-        <v>1.911369278454131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1491929126697684</v>
+      </c>
+      <c r="P6">
+        <v>0.9189576324922406</v>
+      </c>
+      <c r="Q6">
+        <v>1.195188920244789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8074559808028425</v>
+        <v>0.6836665934575592</v>
       </c>
       <c r="C7">
-        <v>0.120738347689656</v>
+        <v>0.1587129805158582</v>
       </c>
       <c r="D7">
-        <v>0.06264230140791227</v>
+        <v>0.07069181195418395</v>
       </c>
       <c r="E7">
-        <v>0.05522190729690202</v>
+        <v>0.05967448330418001</v>
       </c>
       <c r="F7">
-        <v>0.5862264716990069</v>
+        <v>0.3853969735899341</v>
       </c>
       <c r="G7">
-        <v>0.0008231493761389763</v>
+        <v>0.3000485520917522</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003342406197392123</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2933173962718669</v>
       </c>
       <c r="K7">
-        <v>0.6617185852810792</v>
+        <v>0.3358912508690537</v>
       </c>
       <c r="L7">
-        <v>0.1263064591354066</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1737531447814504</v>
+        <v>0.6279607928825612</v>
       </c>
       <c r="N7">
-        <v>1.075372369104622</v>
+        <v>0.1331553412429045</v>
       </c>
       <c r="O7">
-        <v>1.919160997105195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1561130948228886</v>
+      </c>
+      <c r="P7">
+        <v>0.9101921408285616</v>
+      </c>
+      <c r="Q7">
+        <v>1.197495102564574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9733083056960083</v>
+        <v>0.8261168240564984</v>
       </c>
       <c r="C8">
-        <v>0.1228238600393894</v>
+        <v>0.165853919273566</v>
       </c>
       <c r="D8">
-        <v>0.06961657752982831</v>
+        <v>0.08233399691630439</v>
       </c>
       <c r="E8">
-        <v>0.05636235980608539</v>
+        <v>0.06081756420690709</v>
       </c>
       <c r="F8">
-        <v>0.6170607842405715</v>
+        <v>0.4048770533757136</v>
       </c>
       <c r="G8">
-        <v>0.0008185075132677855</v>
+        <v>0.3086565888534309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002079497946086306</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2919281134702629</v>
       </c>
       <c r="K8">
-        <v>0.8011754611318338</v>
+        <v>0.3325133185726905</v>
       </c>
       <c r="L8">
-        <v>0.14342580218932</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2069046315437184</v>
+        <v>0.7527010613845846</v>
       </c>
       <c r="N8">
-        <v>1.016645405762668</v>
+        <v>0.1511304483090328</v>
       </c>
       <c r="O8">
-        <v>1.960607770796173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1868647924420479</v>
+      </c>
+      <c r="P8">
+        <v>0.8730520864286646</v>
+      </c>
+      <c r="Q8">
+        <v>1.21318845880603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.302241161993607</v>
+        <v>1.106775507984963</v>
       </c>
       <c r="C9">
-        <v>0.1270272547154079</v>
+        <v>0.1792330080660349</v>
       </c>
       <c r="D9">
-        <v>0.08316276434639036</v>
+        <v>0.1048769652913748</v>
       </c>
       <c r="E9">
-        <v>0.05918461082468163</v>
+        <v>0.06363413015617425</v>
       </c>
       <c r="F9">
-        <v>0.6861334947150652</v>
+        <v>0.4484687158908045</v>
       </c>
       <c r="G9">
-        <v>0.0008099995395969372</v>
+        <v>0.3302179054150471</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007599936754747461</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2921611702347349</v>
       </c>
       <c r="K9">
-        <v>1.076003848223763</v>
+        <v>0.3296720718228343</v>
       </c>
       <c r="L9">
-        <v>0.1782878187691068</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2730470805548961</v>
+        <v>0.9964186722838519</v>
       </c>
       <c r="N9">
-        <v>0.9110402589654374</v>
+        <v>0.1875538012175682</v>
       </c>
       <c r="O9">
-        <v>2.069564408556943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2476935690154072</v>
+      </c>
+      <c r="P9">
+        <v>0.805975030968078</v>
+      </c>
+      <c r="Q9">
+        <v>1.26002155262961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.547100094803852</v>
+        <v>1.310776831596854</v>
       </c>
       <c r="C10">
-        <v>0.1301935014511457</v>
+        <v>0.1894882027170368</v>
       </c>
       <c r="D10">
-        <v>0.09305253789062107</v>
+        <v>0.1215640587411144</v>
       </c>
       <c r="E10">
-        <v>0.06165234153341892</v>
+        <v>0.06588674054374799</v>
       </c>
       <c r="F10">
-        <v>0.742928705499267</v>
+        <v>0.4826717391936342</v>
       </c>
       <c r="G10">
-        <v>0.0008040913860363496</v>
+        <v>0.3478163281263207</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009739496284746352</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2935504646083444</v>
       </c>
       <c r="K10">
-        <v>1.279446416446575</v>
+        <v>0.3287174975072169</v>
       </c>
       <c r="L10">
-        <v>0.2048493216449003</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.322548760884338</v>
+        <v>1.175376125193054</v>
       </c>
       <c r="N10">
-        <v>0.8396866887393539</v>
+        <v>0.2155292526300769</v>
       </c>
       <c r="O10">
-        <v>2.168796628964486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2924616340861164</v>
+      </c>
+      <c r="P10">
+        <v>0.7606432289410812</v>
+      </c>
+      <c r="Q10">
+        <v>1.300670456213354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659408976501709</v>
+        <v>1.400050283133737</v>
       </c>
       <c r="C11">
-        <v>0.1316530204023252</v>
+        <v>0.1950068238499298</v>
       </c>
       <c r="D11">
-        <v>0.09754205312340503</v>
+        <v>0.1294477053952079</v>
       </c>
       <c r="E11">
-        <v>0.06286927638799966</v>
+        <v>0.06677978350297842</v>
       </c>
       <c r="F11">
-        <v>0.770268416246779</v>
+        <v>0.4974169405010898</v>
       </c>
       <c r="G11">
-        <v>0.0008014733957666851</v>
+        <v>0.3549725854494739</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001716293936263824</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2938164988834586</v>
       </c>
       <c r="K11">
-        <v>1.372496272260037</v>
+        <v>0.3273347288080579</v>
       </c>
       <c r="L11">
-        <v>0.217176878016474</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3453166100090996</v>
+        <v>1.256987125224128</v>
       </c>
       <c r="N11">
-        <v>0.8086760378042932</v>
+        <v>0.2288917278133198</v>
       </c>
       <c r="O11">
-        <v>2.21865044406502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3125445400993314</v>
+      </c>
+      <c r="P11">
+        <v>0.7412366073078758</v>
+      </c>
+      <c r="Q11">
+        <v>1.316586944565472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.702089314621048</v>
+        <v>1.435578603215475</v>
       </c>
       <c r="C12">
-        <v>0.1322086533925955</v>
+        <v>0.1966888311039696</v>
       </c>
       <c r="D12">
-        <v>0.0992410972153337</v>
+        <v>0.1322917511297135</v>
       </c>
       <c r="E12">
-        <v>0.06334443024510605</v>
+        <v>0.06722604554583711</v>
       </c>
       <c r="F12">
-        <v>0.7808541467335033</v>
+        <v>0.5038714197217118</v>
       </c>
       <c r="G12">
-        <v>0.0008004916498805078</v>
+        <v>0.3584990753878117</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001832864022371261</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2943417635309657</v>
       </c>
       <c r="K12">
-        <v>1.407818664094151</v>
+        <v>0.3275630662028739</v>
       </c>
       <c r="L12">
-        <v>0.2218835102964789</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3539785230715822</v>
+        <v>1.287814793430812</v>
       </c>
       <c r="N12">
-        <v>0.7971501430082153</v>
+        <v>0.2338029764623286</v>
       </c>
       <c r="O12">
-        <v>2.238254939069094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3203400941506018</v>
+      </c>
+      <c r="P12">
+        <v>0.7338686563230112</v>
+      </c>
+      <c r="Q12">
+        <v>1.325233490474773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.692890291409981</v>
+        <v>1.428281525521584</v>
       </c>
       <c r="C13">
-        <v>0.1320888537363629</v>
+        <v>0.1962410931836871</v>
       </c>
       <c r="D13">
-        <v>0.09887521863935689</v>
+        <v>0.1316498228453895</v>
       </c>
       <c r="E13">
-        <v>0.06324144757964945</v>
+        <v>0.06714960950260362</v>
       </c>
       <c r="F13">
-        <v>0.7785636915371157</v>
+        <v>0.5026322815867914</v>
       </c>
       <c r="G13">
-        <v>0.0008007026644682809</v>
+        <v>0.3578835544775814</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001762318870358826</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2943014368666752</v>
       </c>
       <c r="K13">
-        <v>1.400207275348521</v>
+        <v>0.3276513710500311</v>
       </c>
       <c r="L13">
-        <v>0.2208680880262506</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3521111633709566</v>
+        <v>1.281157392157212</v>
       </c>
       <c r="N13">
-        <v>0.7996226446181627</v>
+        <v>0.2327047441541481</v>
       </c>
       <c r="O13">
-        <v>2.233999671150769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3186971791002478</v>
+      </c>
+      <c r="P13">
+        <v>0.7354161683944049</v>
+      </c>
+      <c r="Q13">
+        <v>1.323829061735012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.662917166313633</v>
+        <v>1.403123761584908</v>
       </c>
       <c r="C14">
-        <v>0.1316986725061398</v>
+        <v>0.1951089018810066</v>
       </c>
       <c r="D14">
-        <v>0.09768185344274372</v>
+        <v>0.1296691969425439</v>
       </c>
       <c r="E14">
-        <v>0.06290807593389047</v>
+        <v>0.06682484642594311</v>
       </c>
       <c r="F14">
-        <v>0.7711345465365866</v>
+        <v>0.4980119711551012</v>
       </c>
       <c r="G14">
-        <v>0.0008013924362112709</v>
+        <v>0.3553237869141768</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001706213531441847</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2938905956242834</v>
       </c>
       <c r="K14">
-        <v>1.375400450022426</v>
+        <v>0.327411873082859</v>
       </c>
       <c r="L14">
-        <v>0.2175633052517441</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3460283985758892</v>
+        <v>1.259515625307102</v>
       </c>
       <c r="N14">
-        <v>0.8077233902645489</v>
+        <v>0.2292785254233678</v>
       </c>
       <c r="O14">
-        <v>2.220248480915728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3132011524813976</v>
+      </c>
+      <c r="P14">
+        <v>0.7406137772806218</v>
+      </c>
+      <c r="Q14">
+        <v>1.317492493187075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644578062226543</v>
+        <v>1.387015675831151</v>
       </c>
       <c r="C15">
-        <v>0.1314600646091506</v>
+        <v>0.1945841192536406</v>
       </c>
       <c r="D15">
-        <v>0.09695075725534963</v>
+        <v>0.1285140030369121</v>
       </c>
       <c r="E15">
-        <v>0.06270576529469807</v>
+        <v>0.06658754068527806</v>
       </c>
       <c r="F15">
-        <v>0.7666148061524893</v>
+        <v>0.4948888922928489</v>
       </c>
       <c r="G15">
-        <v>0.0008018161836078898</v>
+        <v>0.353475867866095</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001767416620137574</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2934976496511226</v>
       </c>
       <c r="K15">
-        <v>1.360217245310423</v>
+        <v>0.3269967263819069</v>
       </c>
       <c r="L15">
-        <v>0.2155441392701789</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3423079025551914</v>
+        <v>1.246295633032815</v>
       </c>
       <c r="N15">
-        <v>0.8127138856181126</v>
+        <v>0.2272614528834964</v>
       </c>
       <c r="O15">
-        <v>2.211921505381724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3097643572253759</v>
+      </c>
+      <c r="P15">
+        <v>0.7438790697047608</v>
+      </c>
+      <c r="Q15">
+        <v>1.312721470885151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.53978057262583</v>
+        <v>1.299095740355227</v>
       </c>
       <c r="C16">
-        <v>0.1300985199390183</v>
+        <v>0.1905248941124071</v>
       </c>
       <c r="D16">
-        <v>0.0927589747999491</v>
+        <v>0.1215325134743495</v>
       </c>
       <c r="E16">
-        <v>0.06157477446280168</v>
+        <v>0.06549647521873148</v>
       </c>
       <c r="F16">
-        <v>0.7411736362198269</v>
+        <v>0.4791413070950767</v>
       </c>
       <c r="G16">
-        <v>0.0008042638470155405</v>
+        <v>0.3449058476301019</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001641650764926617</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2922905625494181</v>
       </c>
       <c r="K16">
-        <v>1.273376692655631</v>
+        <v>0.3264855525429411</v>
       </c>
       <c r="L16">
-        <v>0.2040488844845356</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3210662121220338</v>
+        <v>1.170336288434157</v>
       </c>
       <c r="N16">
-        <v>0.8417432004346423</v>
+        <v>0.2153011097753108</v>
       </c>
       <c r="O16">
-        <v>2.16563744902902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2905480600012424</v>
+      </c>
+      <c r="P16">
+        <v>0.7624377358952152</v>
+      </c>
+      <c r="Q16">
+        <v>1.291848529392908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.475739740461734</v>
+        <v>1.245134310649348</v>
       </c>
       <c r="C17">
-        <v>0.1292682956724889</v>
+        <v>0.1880440571271933</v>
       </c>
       <c r="D17">
-        <v>0.09018526280163996</v>
+        <v>0.1172526045238271</v>
       </c>
       <c r="E17">
-        <v>0.06090564015654287</v>
+        <v>0.06484309919681053</v>
       </c>
       <c r="F17">
-        <v>0.7259628115471557</v>
+        <v>0.4696599728104829</v>
       </c>
       <c r="G17">
-        <v>0.0008057829821929974</v>
+        <v>0.3397988173388669</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001639287182994664</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2916426332367976</v>
       </c>
       <c r="K17">
-        <v>1.220241353002507</v>
+        <v>0.3262755944467308</v>
       </c>
       <c r="L17">
-        <v>0.1970618341814685</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3081019939964804</v>
+        <v>1.123750083118182</v>
       </c>
       <c r="N17">
-        <v>0.8599288686684528</v>
+        <v>0.2080336981036766</v>
       </c>
       <c r="O17">
-        <v>2.138484049015005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2787786994993198</v>
+      </c>
+      <c r="P17">
+        <v>0.7740494552071198</v>
+      </c>
+      <c r="Q17">
+        <v>1.279554438437273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.438990660384519</v>
+        <v>1.215848577491101</v>
       </c>
       <c r="C18">
-        <v>0.1287925654472346</v>
+        <v>0.1861956507996609</v>
       </c>
       <c r="D18">
-        <v>0.0887040278074096</v>
+        <v>0.1146457495512436</v>
       </c>
       <c r="E18">
-        <v>0.06052960456174716</v>
+        <v>0.06457377525675767</v>
       </c>
       <c r="F18">
-        <v>0.7173543881249671</v>
+        <v>0.4650508820212806</v>
       </c>
       <c r="G18">
-        <v>0.0008066633295575827</v>
+        <v>0.3376570703381745</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001410338365472441</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2916817665918146</v>
       </c>
       <c r="K18">
-        <v>1.18972573515569</v>
+        <v>0.3268965594039059</v>
       </c>
       <c r="L18">
-        <v>0.1930658815126378</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3006685038628163</v>
+        <v>1.096868769711534</v>
       </c>
       <c r="N18">
-        <v>0.8705245542390898</v>
+        <v>0.2036847155146688</v>
       </c>
       <c r="O18">
-        <v>2.123306630128184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2721975031371109</v>
+      </c>
+      <c r="P18">
+        <v>0.7806623126691363</v>
+      </c>
+      <c r="Q18">
+        <v>1.275032003304105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.426562184528279</v>
+        <v>1.204571575403577</v>
       </c>
       <c r="C19">
-        <v>0.1286317938756625</v>
+        <v>0.1858974785827385</v>
       </c>
       <c r="D19">
-        <v>0.08820234262875459</v>
+        <v>0.1138759104966311</v>
       </c>
       <c r="E19">
-        <v>0.0604037799990369</v>
+        <v>0.06440585900212525</v>
       </c>
       <c r="F19">
-        <v>0.7144633559771947</v>
+        <v>0.4628990412540119</v>
       </c>
       <c r="G19">
-        <v>0.0008069625417654082</v>
+        <v>0.3363684300336587</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001529979990269048</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2914086974304197</v>
       </c>
       <c r="K19">
-        <v>1.179401230136648</v>
+        <v>0.3265695958474133</v>
       </c>
       <c r="L19">
-        <v>0.1917167423069941</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2981555052879941</v>
+        <v>1.087836199738859</v>
       </c>
       <c r="N19">
-        <v>0.8741351285356753</v>
+        <v>0.2023658014044969</v>
       </c>
       <c r="O19">
-        <v>2.118242052986488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2698301235609399</v>
+      </c>
+      <c r="P19">
+        <v>0.7830292089303086</v>
+      </c>
+      <c r="Q19">
+        <v>1.271706262798332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.482548013163409</v>
+        <v>1.251018089506061</v>
       </c>
       <c r="C20">
-        <v>0.1293564876157802</v>
+        <v>0.188274373697368</v>
       </c>
       <c r="D20">
-        <v>0.09045933018698804</v>
+        <v>0.1176966304453941</v>
       </c>
       <c r="E20">
-        <v>0.06097595113175736</v>
+        <v>0.06491995634999093</v>
       </c>
       <c r="F20">
-        <v>0.727567377839577</v>
+        <v>0.4707238621513099</v>
       </c>
       <c r="G20">
-        <v>0.0008056205892539284</v>
+        <v>0.3403951038619866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001616599481425673</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2917378224044427</v>
       </c>
       <c r="K20">
-        <v>1.225892796685088</v>
+        <v>0.3263492958438832</v>
       </c>
       <c r="L20">
-        <v>0.1978032333614266</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3094796267894679</v>
+        <v>1.128701947578207</v>
       </c>
       <c r="N20">
-        <v>0.8579788590122295</v>
+        <v>0.2087895324016102</v>
       </c>
       <c r="O20">
-        <v>2.141328645202918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2800451583393411</v>
+      </c>
+      <c r="P20">
+        <v>0.7727929456435767</v>
+      </c>
+      <c r="Q20">
+        <v>1.281029746263627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.671716733509754</v>
+        <v>1.408533411585211</v>
       </c>
       <c r="C21">
-        <v>0.1318131966865153</v>
+        <v>0.1959192572840678</v>
       </c>
       <c r="D21">
-        <v>0.09803239930622709</v>
+        <v>0.1304149138230599</v>
       </c>
       <c r="E21">
-        <v>0.06300560015637302</v>
+        <v>0.06680760338596237</v>
       </c>
       <c r="F21">
-        <v>0.7733102113474928</v>
+        <v>0.4984949999858443</v>
       </c>
       <c r="G21">
-        <v>0.0008011895754015232</v>
+        <v>0.3552454748685463</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00197868308094229</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2935888810908835</v>
       </c>
       <c r="K21">
-        <v>1.382684352699783</v>
+        <v>0.3266965055683535</v>
       </c>
       <c r="L21">
-        <v>0.2185329292147031</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3478139260788708</v>
+        <v>1.265970533526456</v>
       </c>
       <c r="N21">
-        <v>0.8053380374612438</v>
+        <v>0.2305000918014883</v>
       </c>
       <c r="O21">
-        <v>2.224267436505073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.314610750352216</v>
+      </c>
+      <c r="P21">
+        <v>0.7392698854163271</v>
+      </c>
+      <c r="Q21">
+        <v>1.316708969499842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.796241640428065</v>
+        <v>1.513925038567777</v>
       </c>
       <c r="C22">
-        <v>0.1334360632539173</v>
+        <v>0.2003434356684082</v>
       </c>
       <c r="D22">
-        <v>0.1029759476063745</v>
+        <v>0.1385312079279828</v>
       </c>
       <c r="E22">
-        <v>0.06441598790258141</v>
+        <v>0.06823762931298205</v>
       </c>
       <c r="F22">
-        <v>0.8045710874087746</v>
+        <v>0.5183640190308765</v>
       </c>
       <c r="G22">
-        <v>0.0007983495882821046</v>
+        <v>0.3665162463558005</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002137398747497521</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2956455120802701</v>
       </c>
       <c r="K22">
-        <v>1.485667768018146</v>
+        <v>0.3282688188275316</v>
       </c>
       <c r="L22">
-        <v>0.2323068028631639</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3731043009915851</v>
+        <v>1.355620459037084</v>
       </c>
       <c r="N22">
-        <v>0.7722045663508812</v>
+        <v>0.2446546020441644</v>
       </c>
       <c r="O22">
-        <v>2.282728789852541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3375304400973107</v>
+      </c>
+      <c r="P22">
+        <v>0.7178848596348182</v>
+      </c>
+      <c r="Q22">
+        <v>1.345113063450441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.729692123903391</v>
+        <v>1.460070730527264</v>
       </c>
       <c r="C23">
-        <v>0.1325682623352478</v>
+        <v>0.1974032865487843</v>
       </c>
       <c r="D23">
-        <v>0.1003379132655766</v>
+        <v>0.134000195119981</v>
       </c>
       <c r="E23">
-        <v>0.06365529804897463</v>
+        <v>0.06760491124336454</v>
       </c>
       <c r="F23">
-        <v>0.7877558731014034</v>
+        <v>0.5087519074008355</v>
       </c>
       <c r="G23">
-        <v>0.0007998603582400898</v>
+        <v>0.3614502471497758</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001736602785574526</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2950258511585986</v>
       </c>
       <c r="K23">
-        <v>1.430651887172246</v>
+        <v>0.3283424351286079</v>
       </c>
       <c r="L23">
-        <v>0.2249336243065443</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3595831709647257</v>
+        <v>1.30764660442415</v>
       </c>
       <c r="N23">
-        <v>0.7897692004335699</v>
+        <v>0.2368163979473223</v>
       </c>
       <c r="O23">
-        <v>2.251120640607496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3255375625462946</v>
+      </c>
+      <c r="P23">
+        <v>0.7290000216798056</v>
+      </c>
+      <c r="Q23">
+        <v>1.33296788970452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.479469780045434</v>
+        <v>1.252093441516564</v>
       </c>
       <c r="C24">
-        <v>0.1293166111411566</v>
+        <v>0.1872744108435427</v>
       </c>
       <c r="D24">
-        <v>0.0903354292470695</v>
+        <v>0.1171866056974835</v>
       </c>
       <c r="E24">
-        <v>0.06094413662706799</v>
+        <v>0.06509851788613652</v>
       </c>
       <c r="F24">
-        <v>0.7268415295498869</v>
+        <v>0.4718953950083957</v>
       </c>
       <c r="G24">
-        <v>0.0008056939853563553</v>
+        <v>0.3416971552381725</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001129631495186523</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2924957985815837</v>
       </c>
       <c r="K24">
-        <v>1.223337678520863</v>
+        <v>0.3278082801501228</v>
       </c>
       <c r="L24">
-        <v>0.1974679816411395</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3088567376225342</v>
+        <v>1.126275233460404</v>
       </c>
       <c r="N24">
-        <v>0.8588600214085442</v>
+        <v>0.2080379132998189</v>
       </c>
       <c r="O24">
-        <v>2.140041256834081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2798577075497732</v>
+      </c>
+      <c r="P24">
+        <v>0.7730444394560188</v>
+      </c>
+      <c r="Q24">
+        <v>1.28537264681546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.212766929227115</v>
+        <v>1.027471949755181</v>
       </c>
       <c r="C25">
-        <v>0.1258771023383289</v>
+        <v>0.176430307351211</v>
       </c>
       <c r="D25">
-        <v>0.0795104329496894</v>
+        <v>0.09907115388033816</v>
       </c>
       <c r="E25">
-        <v>0.05835469353961997</v>
+        <v>0.06262323201294784</v>
       </c>
       <c r="F25">
-        <v>0.666446266669972</v>
+        <v>0.434630953910613</v>
       </c>
       <c r="G25">
-        <v>0.0008122395013362353</v>
+        <v>0.3224888890631732</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001370385522322159</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.291070730742284</v>
       </c>
       <c r="K25">
-        <v>1.001440855593415</v>
+        <v>0.3287174297685631</v>
       </c>
       <c r="L25">
-        <v>0.168702414813346</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2550109951552137</v>
+        <v>0.9307181616177331</v>
       </c>
       <c r="N25">
-        <v>0.938545418724912</v>
+        <v>0.1779142360971875</v>
       </c>
       <c r="O25">
-        <v>2.036895569228307</v>
+        <v>0.2308418958812446</v>
+      </c>
+      <c r="P25">
+        <v>0.8237019187712775</v>
+      </c>
+      <c r="Q25">
+        <v>1.241186193918821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8673396190854987</v>
+        <v>0.8378772030973778</v>
       </c>
       <c r="C2">
-        <v>0.1671602755100139</v>
+        <v>0.1576607732160866</v>
       </c>
       <c r="D2">
-        <v>0.08525850306856597</v>
+        <v>0.08722913214732841</v>
       </c>
       <c r="E2">
-        <v>0.06131427043876414</v>
+        <v>0.0573284775281806</v>
       </c>
       <c r="F2">
-        <v>0.4116568145334014</v>
+        <v>0.39166759036587</v>
       </c>
       <c r="G2">
-        <v>0.3123927019500314</v>
+        <v>0.2756784630815403</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001518419479879185</v>
+        <v>0.001143551209625393</v>
       </c>
       <c r="J2">
-        <v>0.2923108491824777</v>
+        <v>0.3114041651922577</v>
       </c>
       <c r="K2">
-        <v>0.3329014580924472</v>
+        <v>0.306813125936138</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1548195498478329</v>
       </c>
       <c r="M2">
-        <v>0.7862981181156385</v>
+        <v>0.08213592367886413</v>
       </c>
       <c r="N2">
-        <v>0.1557931641167372</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1954906799089571</v>
+        <v>0.789637940040663</v>
       </c>
       <c r="P2">
-        <v>0.8632490504608459</v>
+        <v>0.1609443528257231</v>
       </c>
       <c r="Q2">
-        <v>1.222003129338731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1920824020499374</v>
+      </c>
+      <c r="R2">
+        <v>0.8455203097428985</v>
+      </c>
+      <c r="S2">
+        <v>1.154304721887641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7551687307712314</v>
+        <v>0.7325785607146997</v>
       </c>
       <c r="C3">
-        <v>0.1616527120873528</v>
+        <v>0.1494697231516398</v>
       </c>
       <c r="D3">
-        <v>0.07615469040822376</v>
+        <v>0.07742994271492165</v>
       </c>
       <c r="E3">
-        <v>0.06034405523701025</v>
+        <v>0.05659704410213173</v>
       </c>
       <c r="F3">
-        <v>0.3956916912780102</v>
+        <v>0.3777293087693891</v>
       </c>
       <c r="G3">
-        <v>0.3050548594178082</v>
+        <v>0.2708621154327133</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002373131196278244</v>
+        <v>0.001721042734929679</v>
       </c>
       <c r="J3">
-        <v>0.2930409169629939</v>
+        <v>0.3106557709464752</v>
       </c>
       <c r="K3">
-        <v>0.33508367806553</v>
+        <v>0.3100897265136879</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1595572656465443</v>
       </c>
       <c r="M3">
-        <v>0.6884085061703757</v>
+        <v>0.08126358434992831</v>
       </c>
       <c r="N3">
-        <v>0.1415465071756401</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.171259695865043</v>
+        <v>0.6916210854918319</v>
       </c>
       <c r="P3">
-        <v>0.8917897864961297</v>
+        <v>0.1460702940938887</v>
       </c>
       <c r="Q3">
-        <v>1.207705032131983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1684749853835967</v>
+      </c>
+      <c r="R3">
+        <v>0.8706669246251888</v>
+      </c>
+      <c r="S3">
+        <v>1.145024996126438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6860042871167593</v>
+        <v>0.6674744559345527</v>
       </c>
       <c r="C4">
-        <v>0.1582884064786185</v>
+        <v>0.144507364304566</v>
       </c>
       <c r="D4">
-        <v>0.07056195697806089</v>
+        <v>0.07142124387839033</v>
       </c>
       <c r="E4">
-        <v>0.05979347568801607</v>
+        <v>0.05618344247327833</v>
       </c>
       <c r="F4">
-        <v>0.3863417139698981</v>
+        <v>0.3695324400381708</v>
       </c>
       <c r="G4">
-        <v>0.300925953502265</v>
+        <v>0.2682793359573736</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003082100413557942</v>
+        <v>0.002231688448361968</v>
       </c>
       <c r="J4">
-        <v>0.293754488464316</v>
+        <v>0.3103066617213344</v>
       </c>
       <c r="K4">
-        <v>0.3367065057408176</v>
+        <v>0.3123043053657923</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1625815584118477</v>
       </c>
       <c r="M4">
-        <v>0.6281907129003486</v>
+        <v>0.0812704608166861</v>
       </c>
       <c r="N4">
-        <v>0.1329832693309001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1563955095802783</v>
+        <v>0.6313102156879324</v>
       </c>
       <c r="P4">
-        <v>0.910039531904804</v>
+        <v>0.1371398122025909</v>
       </c>
       <c r="Q4">
-        <v>1.200272272606171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.15396949017045</v>
+      </c>
+      <c r="R4">
+        <v>0.8868318126050063</v>
+      </c>
+      <c r="S4">
+        <v>1.140387812350085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6571633947784505</v>
+        <v>0.6402520591522034</v>
       </c>
       <c r="C5">
-        <v>0.1570512416310592</v>
+        <v>0.1426540146019804</v>
       </c>
       <c r="D5">
-        <v>0.06832920065627235</v>
+        <v>0.06902300009915052</v>
       </c>
       <c r="E5">
-        <v>0.05954561146895898</v>
+        <v>0.05598975429903064</v>
       </c>
       <c r="F5">
-        <v>0.3823743898995531</v>
+        <v>0.366015230430925</v>
       </c>
       <c r="G5">
-        <v>0.2990792322814286</v>
+        <v>0.267070547747899</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003490728585731517</v>
+        <v>0.002564823635591296</v>
       </c>
       <c r="J5">
-        <v>0.2939785456559108</v>
+        <v>0.3100548156222089</v>
       </c>
       <c r="K5">
-        <v>0.3371908010136657</v>
+        <v>0.313019706753348</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1637172030933947</v>
       </c>
       <c r="M5">
-        <v>0.6036495596498384</v>
+        <v>0.08135556823047541</v>
       </c>
       <c r="N5">
-        <v>0.129602910830414</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1502810489014514</v>
+        <v>0.6067288738651087</v>
       </c>
       <c r="P5">
-        <v>0.9176660394624232</v>
+        <v>0.1336157629525943</v>
       </c>
       <c r="Q5">
-        <v>1.196753447364017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1479951095008794</v>
+      </c>
+      <c r="R5">
+        <v>0.8936269583031056</v>
+      </c>
+      <c r="S5">
+        <v>1.13795219872074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6516586759163374</v>
+        <v>0.6350174942389231</v>
       </c>
       <c r="C6">
-        <v>0.1570067837108269</v>
+        <v>0.1425362358426625</v>
       </c>
       <c r="D6">
-        <v>0.06801671909820328</v>
+        <v>0.06868477402826301</v>
       </c>
       <c r="E6">
-        <v>0.05946277639048425</v>
+        <v>0.05591668677229045</v>
       </c>
       <c r="F6">
-        <v>0.3813959789425425</v>
+        <v>0.3651134882770037</v>
       </c>
       <c r="G6">
-        <v>0.2984659158928693</v>
+        <v>0.2665739417189386</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003660393466368816</v>
+        <v>0.002737865074374568</v>
       </c>
       <c r="J6">
-        <v>0.293858323318041</v>
+        <v>0.3098473908648884</v>
       </c>
       <c r="K6">
-        <v>0.3369742130811844</v>
+        <v>0.3128524195940905</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1637545667315692</v>
       </c>
       <c r="M6">
-        <v>0.5996093780759253</v>
+        <v>0.08131203617064831</v>
       </c>
       <c r="N6">
-        <v>0.1291239127139008</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1491929126697684</v>
+        <v>0.6026828548641561</v>
       </c>
       <c r="P6">
-        <v>0.9189576324922406</v>
+        <v>0.1331149225890087</v>
       </c>
       <c r="Q6">
-        <v>1.195188920244789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1469296041545185</v>
+      </c>
+      <c r="R6">
+        <v>0.8948031351252297</v>
+      </c>
+      <c r="S6">
+        <v>1.136580988559032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6836665934575592</v>
+        <v>0.6648403763776116</v>
       </c>
       <c r="C7">
-        <v>0.1587129805158582</v>
+        <v>0.1448730646375509</v>
       </c>
       <c r="D7">
-        <v>0.07069181195418395</v>
+        <v>0.07166096588230175</v>
       </c>
       <c r="E7">
-        <v>0.05967448330418001</v>
+        <v>0.05609298562212928</v>
       </c>
       <c r="F7">
-        <v>0.3853969735899341</v>
+        <v>0.3680446244707838</v>
       </c>
       <c r="G7">
-        <v>0.3000485520917522</v>
+        <v>0.2696679139370204</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003342406197392123</v>
+        <v>0.002536242248042164</v>
       </c>
       <c r="J7">
-        <v>0.2933173962718669</v>
+        <v>0.3066441502381849</v>
       </c>
       <c r="K7">
-        <v>0.3358912508690537</v>
+        <v>0.3112495731861173</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1620486775928214</v>
       </c>
       <c r="M7">
-        <v>0.6279607928825612</v>
+        <v>0.08101328403486363</v>
       </c>
       <c r="N7">
-        <v>0.1331553412429045</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1561130948228886</v>
+        <v>0.6304981990290059</v>
       </c>
       <c r="P7">
-        <v>0.9101921408285616</v>
+        <v>0.1372959079775171</v>
       </c>
       <c r="Q7">
-        <v>1.197495102564574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1536290620270684</v>
+      </c>
+      <c r="R7">
+        <v>0.8871054183040279</v>
+      </c>
+      <c r="S7">
+        <v>1.135992096140299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8261168240564984</v>
+        <v>0.7979737618456682</v>
       </c>
       <c r="C8">
-        <v>0.165853919273566</v>
+        <v>0.155096530966091</v>
       </c>
       <c r="D8">
-        <v>0.08233399691630439</v>
+        <v>0.08443242895771874</v>
       </c>
       <c r="E8">
-        <v>0.06081756420690709</v>
+        <v>0.05700486400598415</v>
       </c>
       <c r="F8">
-        <v>0.4048770533757136</v>
+        <v>0.3837699012587734</v>
       </c>
       <c r="G8">
-        <v>0.3086565888534309</v>
+        <v>0.2803185778638309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002079497946086306</v>
+        <v>0.001674743985890181</v>
       </c>
       <c r="J8">
-        <v>0.2919281134702629</v>
+        <v>0.3001446515127881</v>
       </c>
       <c r="K8">
-        <v>0.3325133185726905</v>
+        <v>0.3059676937691158</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1555265464022533</v>
       </c>
       <c r="M8">
-        <v>0.7527010613845846</v>
+        <v>0.08116086912901466</v>
       </c>
       <c r="N8">
-        <v>0.1511304483090328</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1868647924420479</v>
+        <v>0.7540440080097142</v>
       </c>
       <c r="P8">
-        <v>0.8730520864286646</v>
+        <v>0.156004119114975</v>
       </c>
       <c r="Q8">
-        <v>1.21318845880603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1834769169963515</v>
+      </c>
+      <c r="R8">
+        <v>0.8545486696713915</v>
+      </c>
+      <c r="S8">
+        <v>1.141804796534544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.106775507984963</v>
+        <v>1.06021479237188</v>
       </c>
       <c r="C9">
-        <v>0.1792330080660349</v>
+        <v>0.1752357186066718</v>
       </c>
       <c r="D9">
-        <v>0.1048769652913748</v>
+        <v>0.1088770788707336</v>
       </c>
       <c r="E9">
-        <v>0.06363413015617425</v>
+        <v>0.05919184549177459</v>
       </c>
       <c r="F9">
-        <v>0.4484687158908045</v>
+        <v>0.4212482816651075</v>
       </c>
       <c r="G9">
-        <v>0.3302179054150471</v>
+        <v>0.2976237540429594</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0007599936754747461</v>
+        <v>0.0008236639375516219</v>
       </c>
       <c r="J9">
-        <v>0.2921611702347349</v>
+        <v>0.3003669969495633</v>
       </c>
       <c r="K9">
-        <v>0.3296720718228343</v>
+        <v>0.2996674952196905</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1448096283734053</v>
       </c>
       <c r="M9">
-        <v>0.9964186722838519</v>
+        <v>0.08644005875421357</v>
       </c>
       <c r="N9">
-        <v>0.1875538012175682</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2476935690154072</v>
+        <v>0.9973825451070013</v>
       </c>
       <c r="P9">
-        <v>0.805975030968078</v>
+        <v>0.1940654372232018</v>
       </c>
       <c r="Q9">
-        <v>1.26002155262961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2425458288732436</v>
+      </c>
+      <c r="R9">
+        <v>0.7960594183193024</v>
+      </c>
+      <c r="S9">
+        <v>1.172901024352839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.310776831596854</v>
+        <v>1.247831199881688</v>
       </c>
       <c r="C10">
-        <v>0.1894882027170368</v>
+        <v>0.1899741996672688</v>
       </c>
       <c r="D10">
-        <v>0.1215640587411144</v>
+        <v>0.1276858163291195</v>
       </c>
       <c r="E10">
-        <v>0.06588674054374799</v>
+        <v>0.0610866371749843</v>
       </c>
       <c r="F10">
-        <v>0.4826717391936342</v>
+        <v>0.4472064056445078</v>
       </c>
       <c r="G10">
-        <v>0.3478163281263207</v>
+        <v>0.3257032753198814</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0009739496284746352</v>
+        <v>0.001234800262872149</v>
       </c>
       <c r="J10">
-        <v>0.2935504646083444</v>
+        <v>0.2839776758088348</v>
       </c>
       <c r="K10">
-        <v>0.3287174975072169</v>
+        <v>0.2942364579484931</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1368414242971632</v>
       </c>
       <c r="M10">
-        <v>1.175376125193054</v>
+        <v>0.09222322948594552</v>
       </c>
       <c r="N10">
-        <v>0.2155292526300769</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2924616340861164</v>
+        <v>1.172377363824808</v>
       </c>
       <c r="P10">
-        <v>0.7606432289410812</v>
+        <v>0.2232104055517112</v>
       </c>
       <c r="Q10">
-        <v>1.300670456213354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2855182586438261</v>
+      </c>
+      <c r="R10">
+        <v>0.7578870760146508</v>
+      </c>
+      <c r="S10">
+        <v>1.190800185541391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.400050283133737</v>
+        <v>1.325947365858553</v>
       </c>
       <c r="C11">
-        <v>0.1950068238499298</v>
+        <v>0.1963398002907866</v>
       </c>
       <c r="D11">
-        <v>0.1294477053952079</v>
+        <v>0.1377587598841643</v>
       </c>
       <c r="E11">
-        <v>0.06677978350297842</v>
+        <v>0.06208971414357656</v>
       </c>
       <c r="F11">
-        <v>0.4974169405010898</v>
+        <v>0.4523762454601936</v>
       </c>
       <c r="G11">
-        <v>0.3549725854494739</v>
+        <v>0.3630551654818817</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001716293936263824</v>
+        <v>0.002094635510577092</v>
       </c>
       <c r="J11">
-        <v>0.2938164988834586</v>
+        <v>0.2507243167644262</v>
       </c>
       <c r="K11">
-        <v>0.3273347288080579</v>
+        <v>0.2881487391877755</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1320818306484739</v>
       </c>
       <c r="M11">
-        <v>1.256987125224128</v>
+        <v>0.09376887840847914</v>
       </c>
       <c r="N11">
-        <v>0.2288917278133198</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3125445400993314</v>
+        <v>1.245845335447115</v>
       </c>
       <c r="P11">
-        <v>0.7412366073078758</v>
+        <v>0.2369135840173442</v>
       </c>
       <c r="Q11">
-        <v>1.316586944565472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3041030611275417</v>
+      </c>
+      <c r="R11">
+        <v>0.7435574796305104</v>
+      </c>
+      <c r="S11">
+        <v>1.179231014189838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.435578603215475</v>
+        <v>1.356720323146789</v>
       </c>
       <c r="C12">
-        <v>0.1966888311039696</v>
+        <v>0.1980774491328532</v>
       </c>
       <c r="D12">
-        <v>0.1322917511297135</v>
+        <v>0.1415885390864986</v>
       </c>
       <c r="E12">
-        <v>0.06722604554583711</v>
+        <v>0.0626104557702849</v>
       </c>
       <c r="F12">
-        <v>0.5038714197217118</v>
+        <v>0.4544198335810137</v>
       </c>
       <c r="G12">
-        <v>0.3584990753878117</v>
+        <v>0.3819296769155898</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001832864022371261</v>
+        <v>0.002203380834294499</v>
       </c>
       <c r="J12">
-        <v>0.2943417635309657</v>
+        <v>0.2371482947934638</v>
       </c>
       <c r="K12">
-        <v>0.3275630662028739</v>
+        <v>0.286178406515031</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.130436144187339</v>
       </c>
       <c r="M12">
-        <v>1.287814793430812</v>
+        <v>0.09452677344281568</v>
       </c>
       <c r="N12">
-        <v>0.2338029764623286</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.3203400941506018</v>
+        <v>1.272761789741054</v>
       </c>
       <c r="P12">
-        <v>0.7338686563230112</v>
+        <v>0.2419219084866882</v>
       </c>
       <c r="Q12">
-        <v>1.325233490474773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3112395746922942</v>
+      </c>
+      <c r="R12">
+        <v>0.738263565642427</v>
+      </c>
+      <c r="S12">
+        <v>1.175131732162868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.428281525521584</v>
+        <v>1.350462524103619</v>
       </c>
       <c r="C13">
-        <v>0.1962410931836871</v>
+        <v>0.197606600643141</v>
       </c>
       <c r="D13">
-        <v>0.1316498228453895</v>
+        <v>0.1407251719364808</v>
       </c>
       <c r="E13">
-        <v>0.06714960950260362</v>
+        <v>0.06251555862385771</v>
       </c>
       <c r="F13">
-        <v>0.5026322815867914</v>
+        <v>0.4541574374049659</v>
       </c>
       <c r="G13">
-        <v>0.3578835544775814</v>
+        <v>0.3778283518303454</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001762318870358826</v>
+        <v>0.002125706853090215</v>
       </c>
       <c r="J13">
-        <v>0.2943014368666752</v>
+        <v>0.2401419990506355</v>
       </c>
       <c r="K13">
-        <v>0.3276513710500311</v>
+        <v>0.2867408852008992</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1308351221994375</v>
       </c>
       <c r="M13">
-        <v>1.281157392157212</v>
+        <v>0.0944203916776587</v>
       </c>
       <c r="N13">
-        <v>0.2327047441541481</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3186971791002478</v>
+        <v>1.266983885922542</v>
       </c>
       <c r="P13">
-        <v>0.7354161683944049</v>
+        <v>0.2408030358172653</v>
       </c>
       <c r="Q13">
-        <v>1.323829061735012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3097425030553183</v>
+      </c>
+      <c r="R13">
+        <v>0.7393252877155412</v>
+      </c>
+      <c r="S13">
+        <v>1.176538499542232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.403123761584908</v>
+        <v>1.32863669288281</v>
       </c>
       <c r="C14">
-        <v>0.1951089018810066</v>
+        <v>0.1964417752852228</v>
       </c>
       <c r="D14">
-        <v>0.1296691969425439</v>
+        <v>0.1380573296059424</v>
       </c>
       <c r="E14">
-        <v>0.06682484642594311</v>
+        <v>0.06213983102519549</v>
       </c>
       <c r="F14">
-        <v>0.4980119711551012</v>
+        <v>0.4526208047137317</v>
       </c>
       <c r="G14">
-        <v>0.3553237869141768</v>
+        <v>0.3645880493593268</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001706213531441847</v>
+        <v>0.002080132567449766</v>
       </c>
       <c r="J14">
-        <v>0.2938905956242834</v>
+        <v>0.2496429141350731</v>
       </c>
       <c r="K14">
-        <v>0.327411873082859</v>
+        <v>0.2880459431370781</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1319657732153328</v>
       </c>
       <c r="M14">
-        <v>1.259515625307102</v>
+        <v>0.09385535326673988</v>
       </c>
       <c r="N14">
-        <v>0.2292785254233678</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3132011524813976</v>
+        <v>1.248068715255528</v>
       </c>
       <c r="P14">
-        <v>0.7406137772806218</v>
+        <v>0.2373085070039309</v>
       </c>
       <c r="Q14">
-        <v>1.317492493187075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3047072192564499</v>
+      </c>
+      <c r="R14">
+        <v>0.7430889496160873</v>
+      </c>
+      <c r="S14">
+        <v>1.179119418448749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.387015675831151</v>
+        <v>1.314517482633477</v>
       </c>
       <c r="C15">
-        <v>0.1945841192536406</v>
+        <v>0.1959130731122372</v>
       </c>
       <c r="D15">
-        <v>0.1285140030369121</v>
+        <v>0.1365058352416497</v>
       </c>
       <c r="E15">
-        <v>0.06658754068527806</v>
+        <v>0.06187770931967584</v>
       </c>
       <c r="F15">
-        <v>0.4948888922928489</v>
+        <v>0.4512996603544437</v>
       </c>
       <c r="G15">
-        <v>0.353475867866095</v>
+        <v>0.3567269613646999</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001767416620137574</v>
+        <v>0.002165428149734971</v>
       </c>
       <c r="J15">
-        <v>0.2934976496511226</v>
+        <v>0.2552480623370883</v>
       </c>
       <c r="K15">
-        <v>0.3269967263819069</v>
+        <v>0.2885580513371835</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1325648940028685</v>
       </c>
       <c r="M15">
-        <v>1.246295633032815</v>
+        <v>0.09339469719112259</v>
       </c>
       <c r="N15">
-        <v>0.2272614528834964</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3097643572253759</v>
+        <v>1.236410656283027</v>
       </c>
       <c r="P15">
-        <v>0.7438790697047608</v>
+        <v>0.2352479394955225</v>
       </c>
       <c r="Q15">
-        <v>1.312721470885151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3015409983998012</v>
+      </c>
+      <c r="R15">
+        <v>0.7455593875630449</v>
+      </c>
+      <c r="S15">
+        <v>1.179577867949732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.299095740355227</v>
+        <v>1.23691841297881</v>
       </c>
       <c r="C16">
-        <v>0.1905248941124071</v>
+        <v>0.1912619294462914</v>
       </c>
       <c r="D16">
-        <v>0.1215325134743495</v>
+        <v>0.127553770031966</v>
       </c>
       <c r="E16">
-        <v>0.06549647521873148</v>
+        <v>0.06070697167288586</v>
       </c>
       <c r="F16">
-        <v>0.4791413070950767</v>
+        <v>0.4442893560650418</v>
       </c>
       <c r="G16">
-        <v>0.3449058476301019</v>
+        <v>0.3213184226804842</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001641650764926617</v>
+        <v>0.002040279936862177</v>
       </c>
       <c r="J16">
-        <v>0.2922905625494181</v>
+        <v>0.284781529218435</v>
       </c>
       <c r="K16">
-        <v>0.3264855525429411</v>
+        <v>0.2924707785417588</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1363875353095239</v>
       </c>
       <c r="M16">
-        <v>1.170336288434157</v>
+        <v>0.09125765558681209</v>
       </c>
       <c r="N16">
-        <v>0.2153011097753108</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2905480600012424</v>
+        <v>1.167768121652102</v>
       </c>
       <c r="P16">
-        <v>0.7624377358952152</v>
+        <v>0.2229730277782096</v>
       </c>
       <c r="Q16">
-        <v>1.291848529392908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2836931046649624</v>
+      </c>
+      <c r="R16">
+        <v>0.7597358868719049</v>
+      </c>
+      <c r="S16">
+        <v>1.183881064996001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.245134310649348</v>
+        <v>1.188447558818751</v>
       </c>
       <c r="C17">
-        <v>0.1880440571271933</v>
+        <v>0.1881220489522164</v>
       </c>
       <c r="D17">
-        <v>0.1172526045238271</v>
+        <v>0.1223345366787782</v>
       </c>
       <c r="E17">
-        <v>0.06484309919681053</v>
+        <v>0.06006392563230811</v>
       </c>
       <c r="F17">
-        <v>0.4696599728104829</v>
+        <v>0.4388780410909305</v>
       </c>
       <c r="G17">
-        <v>0.3397988173388669</v>
+        <v>0.3057036765876404</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001639287182994664</v>
+        <v>0.002023438552662071</v>
       </c>
       <c r="J17">
-        <v>0.2916426332367976</v>
+        <v>0.2985920703005505</v>
       </c>
       <c r="K17">
-        <v>0.3262755944467308</v>
+        <v>0.2943633634758314</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1385961322454214</v>
       </c>
       <c r="M17">
-        <v>1.123750083118182</v>
+        <v>0.08983212429908605</v>
       </c>
       <c r="N17">
-        <v>0.2080336981036766</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2787786994993198</v>
+        <v>1.124275653489462</v>
       </c>
       <c r="P17">
-        <v>0.7740494552071198</v>
+        <v>0.2154681966069489</v>
       </c>
       <c r="Q17">
-        <v>1.279554438437273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.27261062867764</v>
+      </c>
+      <c r="R17">
+        <v>0.7690454522096921</v>
+      </c>
+      <c r="S17">
+        <v>1.183233166877258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.215848577491101</v>
+        <v>1.161997620351457</v>
       </c>
       <c r="C18">
-        <v>0.1861956507996609</v>
+        <v>0.1856861991211716</v>
       </c>
       <c r="D18">
-        <v>0.1146457495512436</v>
+        <v>0.1192749716866217</v>
       </c>
       <c r="E18">
-        <v>0.06457377525675767</v>
+        <v>0.05981653290348987</v>
       </c>
       <c r="F18">
-        <v>0.4650508820212806</v>
+        <v>0.4361345256035918</v>
       </c>
       <c r="G18">
-        <v>0.3376570703381745</v>
+        <v>0.299421620591346</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001410338365472441</v>
+        <v>0.001729745688488826</v>
       </c>
       <c r="J18">
-        <v>0.2916817665918146</v>
+        <v>0.3049028191150285</v>
       </c>
       <c r="K18">
-        <v>0.3268965594039059</v>
+        <v>0.295921943705487</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1400537298799787</v>
       </c>
       <c r="M18">
-        <v>1.096868769711534</v>
+        <v>0.08923021753742333</v>
       </c>
       <c r="N18">
-        <v>0.2036847155146688</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2721975031371109</v>
+        <v>1.098682266593812</v>
       </c>
       <c r="P18">
-        <v>0.7806623126691363</v>
+        <v>0.2109624162785053</v>
       </c>
       <c r="Q18">
-        <v>1.275032003304105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2663708522398345</v>
+      </c>
+      <c r="R18">
+        <v>0.7743638038172875</v>
+      </c>
+      <c r="S18">
+        <v>1.18396733773892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.204571575403577</v>
+        <v>1.151654010090056</v>
       </c>
       <c r="C19">
-        <v>0.1858974785827385</v>
+        <v>0.1852495470946351</v>
       </c>
       <c r="D19">
-        <v>0.1138759104966311</v>
+        <v>0.1183715272189687</v>
       </c>
       <c r="E19">
-        <v>0.06440585900212525</v>
+        <v>0.05966245843045925</v>
       </c>
       <c r="F19">
-        <v>0.4628990412540119</v>
+        <v>0.4345554121168007</v>
       </c>
       <c r="G19">
-        <v>0.3363684300336587</v>
+        <v>0.2970619068014813</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001529979990269048</v>
+        <v>0.001865870794630631</v>
       </c>
       <c r="J19">
-        <v>0.2914086974304197</v>
+        <v>0.3063906785132247</v>
       </c>
       <c r="K19">
-        <v>0.3265695958474133</v>
+        <v>0.2959188401826189</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1403522700575763</v>
       </c>
       <c r="M19">
-        <v>1.087836199738859</v>
+        <v>0.08882758582788242</v>
       </c>
       <c r="N19">
-        <v>0.2023658014044969</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2698301235609399</v>
+        <v>1.090006842172301</v>
       </c>
       <c r="P19">
-        <v>0.7830292089303086</v>
+        <v>0.2095918094448734</v>
       </c>
       <c r="Q19">
-        <v>1.271706262798332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.264110677866757</v>
+      </c>
+      <c r="R19">
+        <v>0.7763846082748955</v>
+      </c>
+      <c r="S19">
+        <v>1.182274135490559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.251018089506061</v>
+        <v>1.193775264196347</v>
       </c>
       <c r="C20">
-        <v>0.188274373697368</v>
+        <v>0.1884256775149922</v>
       </c>
       <c r="D20">
-        <v>0.1176966304453941</v>
+        <v>0.1228683394809735</v>
       </c>
       <c r="E20">
-        <v>0.06491995634999093</v>
+        <v>0.0601372557156612</v>
       </c>
       <c r="F20">
-        <v>0.4707238621513099</v>
+        <v>0.4395542585691388</v>
       </c>
       <c r="G20">
-        <v>0.3403951038619866</v>
+        <v>0.3072120723640737</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001616599481425673</v>
+        <v>0.001998674926855237</v>
       </c>
       <c r="J20">
-        <v>0.2917378224044427</v>
+        <v>0.2973493335107378</v>
       </c>
       <c r="K20">
-        <v>0.3263492958438832</v>
+        <v>0.2942313314017042</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1383850276977814</v>
       </c>
       <c r="M20">
-        <v>1.128701947578207</v>
+        <v>0.09000740839807264</v>
       </c>
       <c r="N20">
-        <v>0.2087895324016102</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2800451583393411</v>
+        <v>1.12894904786711</v>
       </c>
       <c r="P20">
-        <v>0.7727929456435767</v>
+        <v>0.2162505064313649</v>
       </c>
       <c r="Q20">
-        <v>1.281029746263627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.273809481221754</v>
+      </c>
+      <c r="R20">
+        <v>0.7680131532020411</v>
+      </c>
+      <c r="S20">
+        <v>1.18360049848684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.408533411585211</v>
+        <v>1.331870401417234</v>
       </c>
       <c r="C21">
-        <v>0.1959192572840678</v>
+        <v>0.196868869430503</v>
       </c>
       <c r="D21">
-        <v>0.1304149138230599</v>
+        <v>0.1394325007958344</v>
       </c>
       <c r="E21">
-        <v>0.06680760338596237</v>
+        <v>0.0622390228034142</v>
       </c>
       <c r="F21">
-        <v>0.4984949999858443</v>
+        <v>0.4502328447297614</v>
       </c>
       <c r="G21">
-        <v>0.3552454748685463</v>
+        <v>0.3767813217316274</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00197868308094229</v>
+        <v>0.002400669858879212</v>
       </c>
       <c r="J21">
-        <v>0.2935888810908835</v>
+        <v>0.2387167263383887</v>
       </c>
       <c r="K21">
-        <v>0.3266965055683535</v>
+        <v>0.2860188052641348</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1310779463938676</v>
       </c>
       <c r="M21">
-        <v>1.265970533526456</v>
+        <v>0.09332881452010611</v>
       </c>
       <c r="N21">
-        <v>0.2305000918014883</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.314610750352216</v>
+        <v>1.251536778940931</v>
       </c>
       <c r="P21">
-        <v>0.7392698854163271</v>
+        <v>0.2384797426690852</v>
       </c>
       <c r="Q21">
-        <v>1.316708969499842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3057572584321377</v>
+      </c>
+      <c r="R21">
+        <v>0.7428653093112167</v>
+      </c>
+      <c r="S21">
+        <v>1.169974458996961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.513925038567777</v>
+        <v>1.423661246418447</v>
       </c>
       <c r="C22">
-        <v>0.2003434356684082</v>
+        <v>0.2015462833058166</v>
       </c>
       <c r="D22">
-        <v>0.1385312079279828</v>
+        <v>0.1503087155264353</v>
       </c>
       <c r="E22">
-        <v>0.06823762931298205</v>
+        <v>0.06385803044255134</v>
       </c>
       <c r="F22">
-        <v>0.5183640190308765</v>
+        <v>0.4577885287747563</v>
       </c>
       <c r="G22">
-        <v>0.3665162463558005</v>
+        <v>0.4319724893124715</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002137398747497521</v>
+        <v>0.002465149475058048</v>
       </c>
       <c r="J22">
-        <v>0.2956455120802701</v>
+        <v>0.2076691889295006</v>
       </c>
       <c r="K22">
-        <v>0.3282688188275316</v>
+        <v>0.2813789678553675</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1267376670404996</v>
       </c>
       <c r="M22">
-        <v>1.355620459037084</v>
+        <v>0.0960555552301372</v>
       </c>
       <c r="N22">
-        <v>0.2446546020441644</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3375304400973107</v>
+        <v>1.330415850594193</v>
       </c>
       <c r="P22">
-        <v>0.7178848596348182</v>
+        <v>0.2529342746765622</v>
       </c>
       <c r="Q22">
-        <v>1.345113063450441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3268078836935686</v>
+      </c>
+      <c r="R22">
+        <v>0.7273588848510144</v>
+      </c>
+      <c r="S22">
+        <v>1.16284263773413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.460070730527264</v>
+        <v>1.377963271057581</v>
       </c>
       <c r="C23">
-        <v>0.1974032865487843</v>
+        <v>0.19870268565586</v>
       </c>
       <c r="D23">
-        <v>0.134000195119981</v>
+        <v>0.1439735411684495</v>
       </c>
       <c r="E23">
-        <v>0.06760491124336454</v>
+        <v>0.06304539124908537</v>
       </c>
       <c r="F23">
-        <v>0.5087519074008355</v>
+        <v>0.456199230948144</v>
       </c>
       <c r="G23">
-        <v>0.3614502471497758</v>
+        <v>0.3960713868905827</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001736602785574526</v>
+        <v>0.002059811261358568</v>
       </c>
       <c r="J23">
-        <v>0.2950258511585986</v>
+        <v>0.2285050808188416</v>
       </c>
       <c r="K23">
-        <v>0.3283424351286079</v>
+        <v>0.2853660717280775</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1295360659874678</v>
       </c>
       <c r="M23">
-        <v>1.30764660442415</v>
+        <v>0.09522339982907368</v>
       </c>
       <c r="N23">
-        <v>0.2368163979473223</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3255375625462946</v>
+        <v>1.289829912594513</v>
       </c>
       <c r="P23">
-        <v>0.7290000216798056</v>
+        <v>0.2449858323389691</v>
       </c>
       <c r="Q23">
-        <v>1.33296788970452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3159840010704826</v>
+      </c>
+      <c r="R23">
+        <v>0.7346904441602753</v>
+      </c>
+      <c r="S23">
+        <v>1.173845137873556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.252093441516564</v>
+        <v>1.195039865478719</v>
       </c>
       <c r="C24">
-        <v>0.1872744108435427</v>
+        <v>0.1871784280371287</v>
       </c>
       <c r="D24">
-        <v>0.1171866056974835</v>
+        <v>0.1223052876164701</v>
       </c>
       <c r="E24">
-        <v>0.06509851788613652</v>
+        <v>0.06030882263460313</v>
       </c>
       <c r="F24">
-        <v>0.4718953950083957</v>
+        <v>0.4408526775899944</v>
       </c>
       <c r="G24">
-        <v>0.3416971552381725</v>
+        <v>0.3080550212244404</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001129631495186523</v>
+        <v>0.001411195513309593</v>
       </c>
       <c r="J24">
-        <v>0.2924957985815837</v>
+        <v>0.2986646958874744</v>
       </c>
       <c r="K24">
-        <v>0.3278082801501228</v>
+        <v>0.2956621168483871</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1389813601847791</v>
       </c>
       <c r="M24">
-        <v>1.126275233460404</v>
+        <v>0.09046623921963715</v>
       </c>
       <c r="N24">
-        <v>0.2080379132998189</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2798577075497732</v>
+        <v>1.126643019212622</v>
       </c>
       <c r="P24">
-        <v>0.7730444394560188</v>
+        <v>0.2154762819295399</v>
       </c>
       <c r="Q24">
-        <v>1.28537264681546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.27365139045326</v>
+      </c>
+      <c r="R24">
+        <v>0.7679555951394725</v>
+      </c>
+      <c r="S24">
+        <v>1.188221286948306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.027471949755181</v>
+        <v>0.9865711918395164</v>
       </c>
       <c r="C25">
-        <v>0.176430307351211</v>
+        <v>0.1709447141577272</v>
       </c>
       <c r="D25">
-        <v>0.09907115388033816</v>
+        <v>0.1023992157836489</v>
       </c>
       <c r="E25">
-        <v>0.06262323201294784</v>
+        <v>0.05833068055701673</v>
       </c>
       <c r="F25">
-        <v>0.434630953910613</v>
+        <v>0.4099833815344169</v>
       </c>
       <c r="G25">
-        <v>0.3224888890631732</v>
+        <v>0.2878601170304407</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001370385522322159</v>
+        <v>0.001416469184826852</v>
       </c>
       <c r="J25">
-        <v>0.291070730742284</v>
+        <v>0.303799033915503</v>
       </c>
       <c r="K25">
-        <v>0.3287174297685631</v>
+        <v>0.3002066040077516</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1472089889413368</v>
       </c>
       <c r="M25">
-        <v>0.9307181616177331</v>
+        <v>0.08420358415207829</v>
       </c>
       <c r="N25">
-        <v>0.1779142360971875</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2308418958812446</v>
+        <v>0.9326631769043274</v>
       </c>
       <c r="P25">
-        <v>0.8237019187712775</v>
+        <v>0.1840062375056348</v>
       </c>
       <c r="Q25">
-        <v>1.241186193918821</v>
+        <v>0.2262809639032888</v>
+      </c>
+      <c r="R25">
+        <v>0.8114823406677161</v>
+      </c>
+      <c r="S25">
+        <v>1.1611439285941</v>
       </c>
     </row>
   </sheetData>
